--- a/config_10.26/act_hhl_ty_config.xlsx
+++ b/config_10.26/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -127,10 +127,6 @@
   </si>
   <si>
     <t>700万金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_017_hhl_</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -248,6 +244,10 @@
       </rPr>
       <t>00福利券</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_019_hhl_</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -758,7 +758,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>11</v>
@@ -788,7 +788,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>11</v>
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>13</v>
@@ -825,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -872,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5">
         <v>300000</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -892,10 +892,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5">
         <v>60000</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -915,7 +915,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2">
         <v>42000</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -933,10 +933,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
         <v>30000</v>
@@ -954,7 +954,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2">
         <v>24000</v>
@@ -969,10 +969,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2">
         <v>12000</v>
@@ -991,7 +991,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
         <v>9000</v>
@@ -1007,10 +1007,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>6000</v>
@@ -1029,7 +1029,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2">
         <v>3000</v>
@@ -1045,10 +1045,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>1200</v>
@@ -1270,6 +1270,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1279,24 +1289,15 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1311,18 +1312,17 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1334,13 +1334,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_10.26/act_hhl_ty_config.xlsx
+++ b/config_10.26/act_hhl_ty_config.xlsx
@@ -158,14 +158,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_hf2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>pay_icon_gold7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -174,18 +166,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_hf20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_prop_exchange_v5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -199,10 +179,6 @@
   </si>
   <si>
     <t>ty_icon_yxb_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf500</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -248,6 +224,30 @@
   </si>
   <si>
     <t>act_019_hhl_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -695,7 +695,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -758,7 +758,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>11</v>
@@ -788,7 +788,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>11</v>
@@ -826,7 +826,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -872,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2" s="5">
         <v>300000</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -892,10 +892,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5">
         <v>60000</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -915,7 +915,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>42000</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -933,10 +933,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
         <v>30000</v>
@@ -954,7 +954,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>24000</v>
@@ -969,10 +969,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2">
         <v>12000</v>
@@ -991,7 +991,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2">
         <v>9000</v>
@@ -1007,10 +1007,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2">
         <v>6000</v>
@@ -1029,7 +1029,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2">
         <v>3000</v>
@@ -1045,10 +1045,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2">
         <v>1200</v>
@@ -1270,16 +1270,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1289,15 +1279,24 @@
 </allowEditUser>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1312,17 +1311,18 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1334,13 +1334,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>